--- a/Pruebas/maquetacion v1.xlsx
+++ b/Pruebas/maquetacion v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\TrabajoColegio\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F509F-0540-4062-B19D-80FADF69D46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DD46F2-34AB-46B2-9671-8D2DB9AE8260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5F4B2D1-991F-45E3-81E3-815047231002}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D5F4B2D1-991F-45E3-81E3-815047231002}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12206,13 +12206,1772 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>734785</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>159574</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>47005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0F3EC4-D43D-4242-9557-0447B62B561A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13688785" y="26084892"/>
+          <a:ext cx="5520789" cy="4632613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>585105</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6523A919-E214-4E85-8B50-31EB8DE6F6F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14967855" y="27255107"/>
+          <a:ext cx="3143250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Dias</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> disponibles</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C78D17-33DC-4B25-B233-90E80D6348E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14940643" y="27894642"/>
+          <a:ext cx="3143250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Hora</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectángulo 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAD4DC2-D0DB-4A9A-98A8-9746A56D6B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14954248" y="28575000"/>
+          <a:ext cx="3143250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Materia</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83026</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>25978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectángulo 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7690DDE8-59DB-4B3B-B4E4-A02AE43F3744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="26955751"/>
+          <a:ext cx="8369776" cy="4121727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42204</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectángulo 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2661ED96-0435-46DA-929D-87DDB4368570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1578428" y="26751643"/>
+          <a:ext cx="8369776" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectángulo 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7C353A-7E8A-4A13-BEF9-0FB1318DD760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714499" y="27704142"/>
+          <a:ext cx="8162925" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>707570</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>659945</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>91168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectángulo 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37D43BB-437F-4327-B81F-0CB84E4FEFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3755570" y="27513643"/>
+          <a:ext cx="2238375" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t>selector de grados </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectángulo 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E6103F-6F47-45FC-96A3-9C4EB078A6F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="27513642"/>
+          <a:ext cx="2238375" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t>selector de grados </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>669472</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>160566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectángulo 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F237E2AE-6B45-45DD-9F65-7CE2C1B959CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1660072" y="28125966"/>
+          <a:ext cx="8153400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>34229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="CuadroTexto 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536A7F17-089E-4797-B5AE-DE594EE49670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1768929" y="28289251"/>
+          <a:ext cx="2204357" cy="700978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rango</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> horario</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138794</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625930</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="CuadroTexto 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C906D6-C570-4091-A7D4-207AA382044E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3948794" y="28305579"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577631</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>12954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Rectángulo 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAE7483-6F24-4851-85D0-015F158ADC74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7837715" y="30602466"/>
+          <a:ext cx="1883916" cy="271488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Generar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> plantarillas notas</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>478968</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574218</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Rectángulo 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEADF38-9A00-4591-9DC6-E66AD6AA380F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14956968" y="29244471"/>
+          <a:ext cx="3143250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Profesor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="Rectángulo 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6684F7CD-048A-4CD4-8F5B-FE192703948D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676401" y="29026758"/>
+          <a:ext cx="1072242" cy="1902277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100694</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>127908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="CuadroTexto 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36D97E9-08E2-4E7D-ADFF-2929A7811E2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4672694" y="28321908"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117022</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604158</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="CuadroTexto 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E521A7-722F-42F3-BD43-DA6251281120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5451022" y="28324630"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92529</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579665</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="CuadroTexto 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696C9FD0-877E-4E02-8C23-134C0B6790A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6188529" y="28340958"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>51708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="CuadroTexto 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC970A8F-50DF-479B-934F-B34BEF0E0B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6885215" y="28343680"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370115</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>179616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="CuadroTexto 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CF3682-8072-4200-A604-D22046873B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1894115" y="29135616"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>345622</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>141516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>70758</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="CuadroTexto 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9805C2-4E1E-4D1C-8430-7017745D4B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1869622" y="29478516"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73479</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="CuadroTexto 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F24648-2A80-41F7-ADC2-FC160E10042A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1872343" y="29848630"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>62594</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>35380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="CuadroTexto 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BFF236-715B-4F6C-B8A6-E4827CC636E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1861458" y="30232352"/>
+          <a:ext cx="487136" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lunes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166008</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="Rectángulo 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E19FD7-045E-40FF-9833-7EF75D650182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8548008" y="27502756"/>
+          <a:ext cx="1181100" cy="201387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t>jornada </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577631</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>67710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="Conector recto de flecha 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE94CD3C-CCDB-7AB7-D465-F8437D02232E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="116" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9721631" y="27989893"/>
+          <a:ext cx="4402583" cy="2748317"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12250,7 +14009,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12356,7 +14115,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12498,7 +14257,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12508,8 +14267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC4DE47-A791-4658-85C9-0E3D8CAC3DA6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q146" sqref="Q146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
